--- a/outlier_results.xlsx
+++ b/outlier_results.xlsx
@@ -11515,7 +11515,7 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>0.8312528448200398</v>
+        <v>0.8312528448200396</v>
       </c>
       <c r="C402" t="n">
         <v>0.06</v>
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>0.8195965837473207</v>
+        <v>0.8195965837473205</v>
       </c>
       <c r="C405" t="n">
         <v>0.06</v>
@@ -11650,7 +11650,7 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>0.7986634660209704</v>
+        <v>0.7986634660209703</v>
       </c>
       <c r="C407" t="n">
         <v>0.06</v>
@@ -11677,7 +11677,7 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>0.7871831489151863</v>
+        <v>0.7871831489151864</v>
       </c>
       <c r="C408" t="n">
         <v>0.06</v>
@@ -11704,7 +11704,7 @@
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0.7832341989461876</v>
+        <v>0.7832341989461875</v>
       </c>
       <c r="C409" t="n">
         <v>0.06</v>
@@ -11731,7 +11731,7 @@
         </is>
       </c>
       <c r="B410" t="n">
-        <v>0.7296382222837184</v>
+        <v>0.7296382222837181</v>
       </c>
       <c r="C410" t="n">
         <v>0.06</v>
@@ -11758,7 +11758,7 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>0.6771794680991371</v>
+        <v>0.677179468099137</v>
       </c>
       <c r="C411" t="n">
         <v>0.06</v>
@@ -11866,7 +11866,7 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>0.07159893656119881</v>
+        <v>0.0715989365611988</v>
       </c>
       <c r="C415" t="n">
         <v>0.06</v>
@@ -11893,7 +11893,7 @@
         </is>
       </c>
       <c r="B416" t="n">
-        <v>0.06185934947118026</v>
+        <v>0.06185934947118025</v>
       </c>
       <c r="C416" t="n">
         <v>0.06</v>
@@ -12001,7 +12001,7 @@
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0.05005936188110831</v>
+        <v>0.0500593618811083</v>
       </c>
       <c r="C420" t="n">
         <v>0.06</v>
@@ -12082,7 +12082,7 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>0.04789597191585736</v>
+        <v>0.04789597191585737</v>
       </c>
       <c r="C423" t="n">
         <v>0.06</v>
@@ -12163,7 +12163,7 @@
         </is>
       </c>
       <c r="B426" t="n">
-        <v>0.04637933600643857</v>
+        <v>0.04637933600643856</v>
       </c>
       <c r="C426" t="n">
         <v>0.06</v>
@@ -12244,7 +12244,7 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0.04452896592226464</v>
+        <v>0.04452896592226465</v>
       </c>
       <c r="C429" t="n">
         <v>0.06</v>
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0.04397569109364791</v>
+        <v>0.04397569109364792</v>
       </c>
       <c r="C430" t="n">
         <v>0.06</v>
@@ -12298,7 +12298,7 @@
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0.04397278289397457</v>
+        <v>0.04397278289397456</v>
       </c>
       <c r="C431" t="n">
         <v>0.06</v>
@@ -12379,7 +12379,7 @@
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0.04271541266104961</v>
+        <v>0.04271541266104962</v>
       </c>
       <c r="C434" t="n">
         <v>0.06</v>
@@ -12568,7 +12568,7 @@
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0.03904836290604576</v>
+        <v>0.03904836290604577</v>
       </c>
       <c r="C441" t="n">
         <v>0.06</v>
@@ -12622,7 +12622,7 @@
         </is>
       </c>
       <c r="B443" t="n">
-        <v>0.03839529158348817</v>
+        <v>0.03839529158348816</v>
       </c>
       <c r="C443" t="n">
         <v>0.06</v>
@@ -12649,7 +12649,7 @@
         </is>
       </c>
       <c r="B444" t="n">
-        <v>0.03797469090721859</v>
+        <v>0.03797469090721858</v>
       </c>
       <c r="C444" t="n">
         <v>0.06</v>
@@ -12703,7 +12703,7 @@
         </is>
       </c>
       <c r="B446" t="n">
-        <v>0.03717549757291614</v>
+        <v>0.03717549757291615</v>
       </c>
       <c r="C446" t="n">
         <v>0.06</v>
@@ -12730,7 +12730,7 @@
         </is>
       </c>
       <c r="B447" t="n">
-        <v>0.03619684842919699</v>
+        <v>0.036196848429197</v>
       </c>
       <c r="C447" t="n">
         <v>0.06</v>
@@ -12757,7 +12757,7 @@
         </is>
       </c>
       <c r="B448" t="n">
-        <v>0.03564760254729401</v>
+        <v>0.03564760254729402</v>
       </c>
       <c r="C448" t="n">
         <v>0.06</v>
@@ -12784,7 +12784,7 @@
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0.03552043621548907</v>
+        <v>0.03552043621548906</v>
       </c>
       <c r="C449" t="n">
         <v>0.06</v>
@@ -12892,7 +12892,7 @@
         </is>
       </c>
       <c r="B453" t="n">
-        <v>0.03524621773648873</v>
+        <v>0.03524621773648874</v>
       </c>
       <c r="C453" t="n">
         <v>0.06</v>
@@ -13054,7 +13054,7 @@
         </is>
       </c>
       <c r="B459" t="n">
-        <v>0.03409465784676794</v>
+        <v>0.03409465784676793</v>
       </c>
       <c r="C459" t="n">
         <v>0.06</v>
@@ -13108,7 +13108,7 @@
         </is>
       </c>
       <c r="B461" t="n">
-        <v>0.0334684522874089</v>
+        <v>0.03346845228740891</v>
       </c>
       <c r="C461" t="n">
         <v>0.06</v>
@@ -13135,7 +13135,7 @@
         </is>
       </c>
       <c r="B462" t="n">
-        <v>0.03334075566192273</v>
+        <v>0.03334075566192272</v>
       </c>
       <c r="C462" t="n">
         <v>0.06</v>
@@ -13189,7 +13189,7 @@
         </is>
       </c>
       <c r="B464" t="n">
-        <v>0.03265837248641081</v>
+        <v>0.0326583724864108</v>
       </c>
       <c r="C464" t="n">
         <v>0.06</v>
@@ -13216,7 +13216,7 @@
         </is>
       </c>
       <c r="B465" t="n">
-        <v>0.03243848757576624</v>
+        <v>0.03243848757576625</v>
       </c>
       <c r="C465" t="n">
         <v>0.06</v>
@@ -13297,7 +13297,7 @@
         </is>
       </c>
       <c r="B468" t="n">
-        <v>0.03222134642777603</v>
+        <v>0.03222134642777604</v>
       </c>
       <c r="C468" t="n">
         <v>0.06</v>
@@ -13324,7 +13324,7 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>0.03212599654558401</v>
+        <v>0.03212599654558402</v>
       </c>
       <c r="C469" t="n">
         <v>0.06</v>
@@ -13378,7 +13378,7 @@
         </is>
       </c>
       <c r="B471" t="n">
-        <v>0.03204427569849339</v>
+        <v>0.0320442756984934</v>
       </c>
       <c r="C471" t="n">
         <v>0.06</v>
@@ -13405,7 +13405,7 @@
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0.03199932615944368</v>
+        <v>0.03199932615944367</v>
       </c>
       <c r="C472" t="n">
         <v>0.06</v>
@@ -13432,7 +13432,7 @@
         </is>
       </c>
       <c r="B473" t="n">
-        <v>0.03199932615944368</v>
+        <v>0.03199932615944367</v>
       </c>
       <c r="C473" t="n">
         <v>0.06</v>
@@ -13459,7 +13459,7 @@
         </is>
       </c>
       <c r="B474" t="n">
-        <v>0.03191195478805149</v>
+        <v>0.0319119547880515</v>
       </c>
       <c r="C474" t="n">
         <v>0.06</v>
@@ -13729,7 +13729,7 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>0.03083167674781247</v>
+        <v>0.03083167674781249</v>
       </c>
       <c r="C484" t="n">
         <v>0.06</v>
@@ -13810,7 +13810,7 @@
         </is>
       </c>
       <c r="B487" t="n">
-        <v>0.03075083693212656</v>
+        <v>0.03075083693212655</v>
       </c>
       <c r="C487" t="n">
         <v>0.06</v>
@@ -13891,7 +13891,7 @@
         </is>
       </c>
       <c r="B490" t="n">
-        <v>0.03018620598966548</v>
+        <v>0.03018620598966549</v>
       </c>
       <c r="C490" t="n">
         <v>0.06</v>
@@ -14053,7 +14053,7 @@
         </is>
       </c>
       <c r="B496" t="n">
-        <v>0.02949396209160979</v>
+        <v>0.02949396209160978</v>
       </c>
       <c r="C496" t="n">
         <v>0.06</v>
@@ -14107,7 +14107,7 @@
         </is>
       </c>
       <c r="B498" t="n">
-        <v>0.02908331281860083</v>
+        <v>0.02908331281860084</v>
       </c>
       <c r="C498" t="n">
         <v>0.06</v>
@@ -14188,7 +14188,7 @@
         </is>
       </c>
       <c r="B501" t="n">
-        <v>0.02880147310692753</v>
+        <v>0.02880147310692752</v>
       </c>
       <c r="C501" t="n">
         <v>0.06</v>
@@ -14242,7 +14242,7 @@
         </is>
       </c>
       <c r="B503" t="n">
-        <v>0.02853235905983618</v>
+        <v>0.02853235905983617</v>
       </c>
       <c r="C503" t="n">
         <v>0.06</v>
@@ -14269,7 +14269,7 @@
         </is>
       </c>
       <c r="B504" t="n">
-        <v>0.02848888992292658</v>
+        <v>0.02848888992292657</v>
       </c>
       <c r="C504" t="n">
         <v>0.06</v>
@@ -14350,7 +14350,7 @@
         </is>
       </c>
       <c r="B507" t="n">
-        <v>0.02839920081856126</v>
+        <v>0.02839920081856127</v>
       </c>
       <c r="C507" t="n">
         <v>0.06</v>
@@ -14431,7 +14431,7 @@
         </is>
       </c>
       <c r="B510" t="n">
-        <v>0.02829542138796873</v>
+        <v>0.02829542138796872</v>
       </c>
       <c r="C510" t="n">
         <v>0.06</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="B518" t="n">
-        <v>0.02766912255053942</v>
+        <v>0.02766912255053943</v>
       </c>
       <c r="C518" t="n">
         <v>0.06</v>
@@ -14674,7 +14674,7 @@
         </is>
       </c>
       <c r="B519" t="n">
-        <v>0.02753976553491114</v>
+        <v>0.02753976553491115</v>
       </c>
       <c r="C519" t="n">
         <v>0.06</v>
@@ -14701,7 +14701,7 @@
         </is>
       </c>
       <c r="B520" t="n">
-        <v>0.0275173325489168</v>
+        <v>0.02751733254891679</v>
       </c>
       <c r="C520" t="n">
         <v>0.06</v>
@@ -14755,7 +14755,7 @@
         </is>
       </c>
       <c r="B522" t="n">
-        <v>0.02746463879359227</v>
+        <v>0.02746463879359226</v>
       </c>
       <c r="C522" t="n">
         <v>0.06</v>
@@ -14836,7 +14836,7 @@
         </is>
       </c>
       <c r="B525" t="n">
-        <v>0.02713219702742853</v>
+        <v>0.02713219702742854</v>
       </c>
       <c r="C525" t="n">
         <v>0.06</v>
@@ -14917,7 +14917,7 @@
         </is>
       </c>
       <c r="B528" t="n">
-        <v>0.0269267817230241</v>
+        <v>0.02692678172302411</v>
       </c>
       <c r="C528" t="n">
         <v>0.06</v>
@@ -15052,7 +15052,7 @@
         </is>
       </c>
       <c r="B533" t="n">
-        <v>0.02638939446399128</v>
+        <v>0.02638939446399129</v>
       </c>
       <c r="C533" t="n">
         <v>0.06</v>
@@ -15268,7 +15268,7 @@
         </is>
       </c>
       <c r="B541" t="n">
-        <v>0.02581927641040418</v>
+        <v>0.02581927641040419</v>
       </c>
       <c r="C541" t="n">
         <v>0.06</v>
@@ -15430,7 +15430,7 @@
         </is>
       </c>
       <c r="B547" t="n">
-        <v>0.02543264633383833</v>
+        <v>0.02543264633383834</v>
       </c>
       <c r="C547" t="n">
         <v>0.06</v>
@@ -15484,7 +15484,7 @@
         </is>
       </c>
       <c r="B549" t="n">
-        <v>0.02521548198118413</v>
+        <v>0.02521548198118414</v>
       </c>
       <c r="C549" t="n">
         <v>0.06</v>
@@ -15511,7 +15511,7 @@
         </is>
       </c>
       <c r="B550" t="n">
-        <v>0.02521548198118413</v>
+        <v>0.02521548198118414</v>
       </c>
       <c r="C550" t="n">
         <v>0.06</v>
@@ -15538,7 +15538,7 @@
         </is>
       </c>
       <c r="B551" t="n">
-        <v>0.02521548198118413</v>
+        <v>0.02521548198118414</v>
       </c>
       <c r="C551" t="n">
         <v>0.06</v>
@@ -15565,7 +15565,7 @@
         </is>
       </c>
       <c r="B552" t="n">
-        <v>0.02521548198118413</v>
+        <v>0.02521548198118414</v>
       </c>
       <c r="C552" t="n">
         <v>0.06</v>
@@ -15619,7 +15619,7 @@
         </is>
       </c>
       <c r="B554" t="n">
-        <v>0.02508626018506914</v>
+        <v>0.02508626018506915</v>
       </c>
       <c r="C554" t="n">
         <v>0.06</v>
@@ -15808,7 +15808,7 @@
         </is>
       </c>
       <c r="B561" t="n">
-        <v>0.02467568886384472</v>
+        <v>0.02467568886384471</v>
       </c>
       <c r="C561" t="n">
         <v>0.06</v>
@@ -15889,7 +15889,7 @@
         </is>
       </c>
       <c r="B564" t="n">
-        <v>0.02452716077949584</v>
+        <v>0.02452716077949585</v>
       </c>
       <c r="C564" t="n">
         <v>0.06</v>
@@ -16240,7 +16240,7 @@
         </is>
       </c>
       <c r="B577" t="n">
-        <v>0.02400487958640389</v>
+        <v>0.02400487958640388</v>
       </c>
       <c r="C577" t="n">
         <v>0.06</v>
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="B580" t="n">
-        <v>0.02357775601982232</v>
+        <v>0.02357775601982233</v>
       </c>
       <c r="C580" t="n">
         <v>0.06</v>
@@ -16429,7 +16429,7 @@
         </is>
       </c>
       <c r="B584" t="n">
-        <v>0.0233509698369913</v>
+        <v>0.02335096983699131</v>
       </c>
       <c r="C584" t="n">
         <v>0.06</v>
@@ -16672,7 +16672,7 @@
         </is>
       </c>
       <c r="B593" t="n">
-        <v>0.02269762247017724</v>
+        <v>0.02269762247017725</v>
       </c>
       <c r="C593" t="n">
         <v>0.06</v>

--- a/outlier_results.xlsx
+++ b/outlier_results.xlsx
@@ -963,7 +963,7 @@
         <v>0.05</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.784784800000125</v>
+        <v>0.7930890000006912</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>0.05</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.5028862000017398</v>
+        <v>0.5185724000002665</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>0.003993647509840681</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.04510398802000232</v>
+        <v>0.04510398802000233</v>
       </c>
       <c r="AB4" t="n">
         <v>0.2</v>
@@ -1167,7 +1167,7 @@
         <v>0.05</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.59587460000148</v>
+        <v>2.550077599998986</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0.05224857528273386</v>
+        <v>0.05224857528273387</v>
       </c>
       <c r="E84" t="n">
         <v>0.06</v>
@@ -3739,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0.04637933600643857</v>
+        <v>0.04637933600643858</v>
       </c>
       <c r="E85" t="n">
         <v>0.06</v>
@@ -3889,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0.03717549757291614</v>
+        <v>0.03717549757291615</v>
       </c>
       <c r="E90" t="n">
         <v>0.06</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0.03334075566192273</v>
+        <v>0.03334075566192274</v>
       </c>
       <c r="E91" t="n">
         <v>0.06</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0.02988636740529852</v>
+        <v>0.02988636740529851</v>
       </c>
       <c r="E98" t="n">
         <v>0.06</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0.02880147310692752</v>
+        <v>0.02880147310692753</v>
       </c>
       <c r="E99" t="n">
         <v>0.06</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0.02853235905983617</v>
+        <v>0.02853235905983618</v>
       </c>
       <c r="E101" t="n">
         <v>0.06</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.02837043948804646</v>
+        <v>0.02837043948804647</v>
       </c>
       <c r="E103" t="n">
         <v>0.06</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>0.02806996348662183</v>
+        <v>0.02806996348662184</v>
       </c>
       <c r="E105" t="n">
         <v>0.06</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>0.02671807106995705</v>
+        <v>0.02671807106995706</v>
       </c>
       <c r="E106" t="n">
         <v>0.06</v>
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>0.02521548198118413</v>
+        <v>0.02521548198118414</v>
       </c>
       <c r="E110" t="n">
         <v>0.06</v>
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>0.02521548198118413</v>
+        <v>0.02521548198118414</v>
       </c>
       <c r="E111" t="n">
         <v>0.06</v>
@@ -4549,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>0.02519374801396112</v>
+        <v>0.02519374801396113</v>
       </c>
       <c r="E112" t="n">
         <v>0.06</v>
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0.02455412641362508</v>
+        <v>0.02455412641362509</v>
       </c>
       <c r="E114" t="n">
         <v>0.06</v>
